--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projeto Cursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259100F9-AAD4-4B73-B74B-34D3DAFA13B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CE8EB8-3BC4-406C-83D6-ACAF55C96B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" xr2:uid="{A8098F37-2CD4-4266-8738-D188ED4B2C8F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="357">
   <si>
     <t>Status</t>
   </si>
@@ -57,12 +57,6 @@
     <t>748.14</t>
   </si>
   <si>
-    <t>655.29</t>
-  </si>
-  <si>
-    <t>92.85</t>
-  </si>
-  <si>
     <t>Ampla concorrência</t>
   </si>
   <si>
@@ -78,33 +72,15 @@
     <t>São Cristóvão</t>
   </si>
   <si>
-    <t>658.37</t>
-  </si>
-  <si>
-    <t>89.77</t>
-  </si>
-  <si>
     <t>Noturno</t>
   </si>
   <si>
-    <t>621.15</t>
-  </si>
-  <si>
-    <t>126.99</t>
-  </si>
-  <si>
     <t>Itabaiana</t>
   </si>
   <si>
     <t>744.43</t>
   </si>
   <si>
-    <t>507.53</t>
-  </si>
-  <si>
-    <t>236.90</t>
-  </si>
-  <si>
     <t>Integral</t>
   </si>
   <si>
@@ -117,12 +93,6 @@
     <t>703.37</t>
   </si>
   <si>
-    <t>560.80</t>
-  </si>
-  <si>
-    <t>142.57</t>
-  </si>
-  <si>
     <t>ARQUEOLOGIA</t>
   </si>
   <si>
@@ -132,24 +102,12 @@
     <t>745.74</t>
   </si>
   <si>
-    <t>713.00</t>
-  </si>
-  <si>
-    <t>32.74</t>
-  </si>
-  <si>
     <t>ARQUITETURA E URBANISMO</t>
   </si>
   <si>
     <t>737.86</t>
   </si>
   <si>
-    <t>659.93</t>
-  </si>
-  <si>
-    <t>77.93</t>
-  </si>
-  <si>
     <t>Licenciatura</t>
   </si>
   <si>
@@ -159,111 +117,45 @@
     <t>743.79</t>
   </si>
   <si>
-    <t>680.79</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>ASTRONOMIA</t>
   </si>
   <si>
     <t>750.28</t>
   </si>
   <si>
-    <t>504.94</t>
-  </si>
-  <si>
-    <t>245.34</t>
-  </si>
-  <si>
     <t>BIBLIOTECONOMIA E DOCUMENTAÇÃO</t>
   </si>
   <si>
     <t>768.51</t>
   </si>
   <si>
-    <t>751.57</t>
-  </si>
-  <si>
-    <t>16.94</t>
-  </si>
-  <si>
     <t>CIÊNCIA DA COMPUTAÇÃO</t>
   </si>
   <si>
     <t>765.79</t>
   </si>
   <si>
-    <t>474.55</t>
-  </si>
-  <si>
-    <t>291.24</t>
-  </si>
-  <si>
     <t>CIÊNCIAS ATUARIAIS</t>
   </si>
   <si>
     <t>748.72</t>
   </si>
   <si>
-    <t>663.50</t>
-  </si>
-  <si>
-    <t>85.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">CIÊNCIAS BIOLÓGICAS </t>
   </si>
   <si>
-    <t>646.01</t>
-  </si>
-  <si>
-    <t>102.71</t>
-  </si>
-  <si>
-    <t>702.78</t>
-  </si>
-  <si>
-    <t>45.94</t>
-  </si>
-  <si>
     <t>Matutino</t>
   </si>
   <si>
-    <t>609.09</t>
-  </si>
-  <si>
-    <t>139.63</t>
-  </si>
-  <si>
     <t>750.53</t>
   </si>
   <si>
-    <t>654.87</t>
-  </si>
-  <si>
-    <t>95.66</t>
-  </si>
-  <si>
     <t>CIÊNCIAS CONTÁBEIS</t>
   </si>
   <si>
-    <t>649.28</t>
-  </si>
-  <si>
-    <t>101.25</t>
-  </si>
-  <si>
     <t>703.05</t>
   </si>
   <si>
-    <t>499.06</t>
-  </si>
-  <si>
-    <t>203.99</t>
-  </si>
-  <si>
     <t>CIÊNCIAS DA RELIGIÃO</t>
   </si>
   <si>
@@ -279,441 +171,162 @@
     <t>CIÊNCIAS ECONÔMICAS</t>
   </si>
   <si>
-    <t>624.56</t>
-  </si>
-  <si>
-    <t>113.80</t>
-  </si>
-  <si>
-    <t>632.60</t>
-  </si>
-  <si>
-    <t>70.45</t>
-  </si>
-  <si>
     <t>CIÊNCIAS SOCIAIS</t>
   </si>
   <si>
-    <t>677.08</t>
-  </si>
-  <si>
-    <t>60.78</t>
-  </si>
-  <si>
     <t>CINEMA E AUDIOVISUAL</t>
   </si>
   <si>
     <t>723.17</t>
   </si>
   <si>
-    <t>567.42</t>
-  </si>
-  <si>
-    <t>155.75</t>
-  </si>
-  <si>
     <t>DANÇA</t>
   </si>
   <si>
     <t>747.89</t>
   </si>
   <si>
-    <t>690.38</t>
-  </si>
-  <si>
-    <t>57.51</t>
-  </si>
-  <si>
     <t>DESIGN</t>
   </si>
   <si>
     <t>Reprovado</t>
   </si>
   <si>
-    <t>763.21</t>
-  </si>
-  <si>
-    <t>-12.93</t>
-  </si>
-  <si>
     <t>DIREITO</t>
   </si>
   <si>
-    <t>756.16</t>
-  </si>
-  <si>
-    <t>-5.88</t>
-  </si>
-  <si>
     <t>739.27</t>
   </si>
   <si>
-    <t>522.09</t>
-  </si>
-  <si>
-    <t>217.18</t>
-  </si>
-  <si>
     <t>ECOLOGIA</t>
   </si>
   <si>
     <t>719.15</t>
   </si>
   <si>
-    <t>649.20</t>
-  </si>
-  <si>
-    <t>69.95</t>
-  </si>
-  <si>
     <t>EDUCAÇÃO FÍSICA</t>
   </si>
   <si>
-    <t>616.55</t>
-  </si>
-  <si>
-    <t>102.60</t>
-  </si>
-  <si>
-    <t>696.33</t>
-  </si>
-  <si>
-    <t>22.82</t>
-  </si>
-  <si>
     <t>ENFERMAGEM</t>
   </si>
   <si>
     <t>Aracaju</t>
   </si>
   <si>
-    <t>692.45</t>
-  </si>
-  <si>
-    <t>26.70</t>
-  </si>
-  <si>
     <t>Lagarto</t>
   </si>
   <si>
-    <t>560.22</t>
-  </si>
-  <si>
-    <t>184.21</t>
-  </si>
-  <si>
     <t>ENGENHARIA AGRÍCOLA</t>
   </si>
   <si>
-    <t>636.28</t>
-  </si>
-  <si>
-    <t>108.15</t>
-  </si>
-  <si>
     <t>ENGENHARIA AGRONÔMICA</t>
   </si>
   <si>
-    <t>586.92</t>
-  </si>
-  <si>
-    <t>157.51</t>
-  </si>
-  <si>
     <t>761.2</t>
   </si>
   <si>
-    <t>603.61</t>
-  </si>
-  <si>
-    <t>157.59</t>
-  </si>
-  <si>
     <t>ENGENHARIA AMBIENTAL E SANITÁRIA</t>
   </si>
   <si>
-    <t>659.39</t>
-  </si>
-  <si>
-    <t>84.40</t>
-  </si>
-  <si>
     <t>ENGENHARIA CIVIL</t>
   </si>
   <si>
-    <t>546.52</t>
-  </si>
-  <si>
-    <t>197.27</t>
-  </si>
-  <si>
     <t>ENGENHARIA DE ALIMENTOS</t>
   </si>
   <si>
-    <t>749.49</t>
-  </si>
-  <si>
-    <t>19.02</t>
-  </si>
-  <si>
     <t>ENGENHARIA DE COMPUTAÇÃO</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
     <t>ENGENHARIA DE MATERIAIS</t>
   </si>
   <si>
     <t>736.8</t>
   </si>
   <si>
-    <t>467.83</t>
-  </si>
-  <si>
-    <t>268.97</t>
-  </si>
-  <si>
     <t>ENGENHARIA DE PESCA</t>
   </si>
   <si>
-    <t>646.78</t>
-  </si>
-  <si>
-    <t>114.42</t>
-  </si>
-  <si>
     <t>ENGENHARIA DE PETRÓLEO</t>
   </si>
   <si>
     <t>743.54</t>
   </si>
   <si>
-    <t>648.82</t>
-  </si>
-  <si>
-    <t>94.72</t>
-  </si>
-  <si>
     <t>ENGENHARIA DE PRODUÇÃO</t>
   </si>
   <si>
     <t>777.96</t>
   </si>
   <si>
-    <t>708.12</t>
-  </si>
-  <si>
-    <t>69.84</t>
-  </si>
-  <si>
     <t>ENGENHARIA ELÉTRICA</t>
   </si>
   <si>
-    <t>652.08</t>
-  </si>
-  <si>
-    <t>125.88</t>
-  </si>
-  <si>
     <t>ENGENHARIA ELETRÔNICA</t>
   </si>
   <si>
-    <t>467.74</t>
-  </si>
-  <si>
-    <t>276.69</t>
-  </si>
-  <si>
     <t>ENGENHARIA FLORESTAL</t>
   </si>
   <si>
-    <t>662.37</t>
-  </si>
-  <si>
-    <t>82.06</t>
-  </si>
-  <si>
     <t>ENGENHARIA MECÂNICA</t>
   </si>
   <si>
     <t>744.11</t>
   </si>
   <si>
-    <t>642.14</t>
-  </si>
-  <si>
-    <t>101.97</t>
-  </si>
-  <si>
     <t>ENGENHARIA QUÍMICA</t>
   </si>
   <si>
     <t>758.41</t>
   </si>
   <si>
-    <t>594.29</t>
-  </si>
-  <si>
-    <t>164.12</t>
-  </si>
-  <si>
     <t>ESTATÍSTICA</t>
   </si>
   <si>
     <t>729.49</t>
   </si>
   <si>
-    <t>670.20</t>
-  </si>
-  <si>
-    <t>59.29</t>
-  </si>
-  <si>
     <t>FARMÁCIA</t>
   </si>
   <si>
-    <t>657.12</t>
-  </si>
-  <si>
-    <t>72.37</t>
-  </si>
-  <si>
     <t>770.4</t>
   </si>
   <si>
-    <t>628.22</t>
-  </si>
-  <si>
-    <t>142.18</t>
-  </si>
-  <si>
     <t>FILOSOFIA</t>
   </si>
   <si>
-    <t>565.01</t>
-  </si>
-  <si>
-    <t>178.78</t>
-  </si>
-  <si>
     <t>FÍSICA</t>
   </si>
   <si>
     <t>753.89</t>
   </si>
   <si>
-    <t>522.79</t>
-  </si>
-  <si>
-    <t>231.10</t>
-  </si>
-  <si>
-    <t>524.89</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>647.61</t>
-  </si>
-  <si>
-    <t>96.18</t>
-  </si>
-  <si>
     <t>FÍSICA MÉDICA</t>
   </si>
   <si>
     <t>729.17</t>
   </si>
   <si>
-    <t>696.22</t>
-  </si>
-  <si>
-    <t>32.95</t>
-  </si>
-  <si>
     <t>FISIOTERAPIA</t>
   </si>
   <si>
-    <t>679.17</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>666.66</t>
-  </si>
-  <si>
-    <t>52.49</t>
-  </si>
-  <si>
     <t>FONOAUDIOLOGIA</t>
   </si>
   <si>
-    <t>635.57</t>
-  </si>
-  <si>
-    <t>83.58</t>
-  </si>
-  <si>
-    <t>631.85</t>
-  </si>
-  <si>
-    <t>116.04</t>
-  </si>
-  <si>
     <t>GEOGRAFIA</t>
   </si>
   <si>
     <t>720.46</t>
   </si>
   <si>
-    <t>600.45</t>
-  </si>
-  <si>
-    <t>120.01</t>
-  </si>
-  <si>
-    <t>605.74</t>
-  </si>
-  <si>
-    <t>114.72</t>
-  </si>
-  <si>
-    <t>580.00</t>
-  </si>
-  <si>
-    <t>140.46</t>
-  </si>
-  <si>
-    <t>568.57</t>
-  </si>
-  <si>
-    <t>175.54</t>
-  </si>
-  <si>
     <t>GEOLOGIA</t>
   </si>
   <si>
     <t>730.8</t>
   </si>
   <si>
-    <t>655.14</t>
-  </si>
-  <si>
-    <t>75.66</t>
-  </si>
-  <si>
     <t>HISTÓRIA</t>
   </si>
   <si>
-    <t>641.21</t>
-  </si>
-  <si>
-    <t>89.59</t>
-  </si>
-  <si>
     <t>757.91</t>
   </si>
   <si>
@@ -729,351 +342,123 @@
     <t>740.26</t>
   </si>
   <si>
-    <t>573.44</t>
-  </si>
-  <si>
-    <t>166.82</t>
-  </si>
-  <si>
     <t>LETRAS - ESPANHOL</t>
   </si>
   <si>
-    <t>641.40</t>
-  </si>
-  <si>
-    <t>98.86</t>
-  </si>
-  <si>
     <t>LETRAS - INGLÊS</t>
   </si>
   <si>
-    <t>645.66</t>
-  </si>
-  <si>
-    <t>94.60</t>
-  </si>
-  <si>
     <t>LETRAS - LÍNGUA PORTUGUESA</t>
   </si>
   <si>
-    <t>647.28</t>
-  </si>
-  <si>
-    <t>92.98</t>
-  </si>
-  <si>
-    <t>634.41</t>
-  </si>
-  <si>
-    <t>105.85</t>
-  </si>
-  <si>
     <t>599.31</t>
   </si>
   <si>
-    <t>140.95</t>
-  </si>
-  <si>
     <t>LETRAS - PORTUGUÊS E ESPANHOL</t>
   </si>
   <si>
-    <t>558.91</t>
-  </si>
-  <si>
-    <t>181.35</t>
-  </si>
-  <si>
     <t>LETRAS - PORTUGUÊS E FRANCÊS</t>
   </si>
   <si>
-    <t>666.45</t>
-  </si>
-  <si>
-    <t>73.81</t>
-  </si>
-  <si>
     <t>LETRAS - PORTUGUÊS E INGLÊS</t>
   </si>
   <si>
     <t>760.88</t>
   </si>
   <si>
-    <t>585.20</t>
-  </si>
-  <si>
-    <t>175.68</t>
-  </si>
-  <si>
     <t>MATEMÁTICA</t>
   </si>
   <si>
-    <t>648.99</t>
-  </si>
-  <si>
-    <t>111.89</t>
-  </si>
-  <si>
     <t>751.42</t>
   </si>
   <si>
-    <t>556.64</t>
-  </si>
-  <si>
-    <t>194.78</t>
-  </si>
-  <si>
-    <t>582.01</t>
-  </si>
-  <si>
-    <t>178.87</t>
-  </si>
-  <si>
-    <t>520.79</t>
-  </si>
-  <si>
-    <t>230.63</t>
-  </si>
-  <si>
     <t>MATEMÁTICA APLICADA E COMPUTACIONAL</t>
   </si>
   <si>
     <t>721.86</t>
   </si>
   <si>
-    <t>794.18</t>
-  </si>
-  <si>
-    <t>-72.32</t>
-  </si>
-  <si>
     <t>MEDICINA</t>
   </si>
   <si>
-    <t>789.79</t>
-  </si>
-  <si>
-    <t>-67.93</t>
-  </si>
-  <si>
     <t>719.47</t>
   </si>
   <si>
-    <t>695.70</t>
-  </si>
-  <si>
-    <t>23.77</t>
-  </si>
-  <si>
     <t>MEDICINA VETERINÁRIA</t>
   </si>
   <si>
-    <t>653.66</t>
-  </si>
-  <si>
-    <t>65.81</t>
-  </si>
-  <si>
     <t>MUSEOLOGIA</t>
   </si>
   <si>
-    <t>684.10</t>
-  </si>
-  <si>
-    <t>45.07</t>
-  </si>
-  <si>
     <t>NUTRIÇÃO</t>
   </si>
   <si>
-    <t>659.79</t>
-  </si>
-  <si>
-    <t>69.38</t>
-  </si>
-  <si>
-    <t>737.25</t>
-  </si>
-  <si>
-    <t>-8.08</t>
-  </si>
-  <si>
     <t>ODONTOLOGIA</t>
   </si>
   <si>
-    <t>720.84</t>
-  </si>
-  <si>
-    <t>8.33</t>
-  </si>
-  <si>
-    <t>651.16</t>
-  </si>
-  <si>
-    <t>89.10</t>
-  </si>
-  <si>
     <t>PEDAGOGIA</t>
   </si>
   <si>
-    <t>646.54</t>
-  </si>
-  <si>
-    <t>93.72</t>
-  </si>
-  <si>
-    <t>635.58</t>
-  </si>
-  <si>
-    <t>104.68</t>
-  </si>
-  <si>
     <t>740.58</t>
   </si>
   <si>
-    <t>751.09</t>
-  </si>
-  <si>
-    <t>-10.51</t>
-  </si>
-  <si>
     <t>PSICOLOGIA</t>
   </si>
   <si>
-    <t>697.78</t>
-  </si>
-  <si>
-    <t>50.11</t>
-  </si>
-  <si>
     <t>PUBLICIDADE E PROPAGANDA</t>
   </si>
   <si>
-    <t>555.37</t>
-  </si>
-  <si>
-    <t>188.74</t>
-  </si>
-  <si>
     <t>QUÍMICA</t>
   </si>
   <si>
     <t>746.26</t>
   </si>
   <si>
-    <t>566.41</t>
-  </si>
-  <si>
-    <t>179.85</t>
-  </si>
-  <si>
     <t>763.66</t>
   </si>
   <si>
-    <t>580.72</t>
-  </si>
-  <si>
-    <t>182.94</t>
-  </si>
-  <si>
     <t>QUÍMICA INDUSTRIAL</t>
   </si>
   <si>
     <t>713.08</t>
   </si>
   <si>
-    <t>708.20</t>
-  </si>
-  <si>
-    <t>4.88</t>
-  </si>
-  <si>
     <t>RELAÇÕES INTERNACIONAIS</t>
   </si>
   <si>
-    <t>585.56</t>
-  </si>
-  <si>
     <t>164.72</t>
   </si>
   <si>
     <t>SECRETARIADO EXECUTIVO</t>
   </si>
   <si>
-    <t>637.87</t>
-  </si>
-  <si>
-    <t>102.39</t>
-  </si>
-  <si>
     <t>SERVIÇO SOCIAL</t>
   </si>
   <si>
     <t>758.16</t>
   </si>
   <si>
-    <t>699.48</t>
-  </si>
-  <si>
-    <t>58.68</t>
-  </si>
-  <si>
     <t>SISTEMAS DE INFORMAÇÃO</t>
   </si>
   <si>
-    <t>732.78</t>
-  </si>
-  <si>
-    <t>25.38</t>
-  </si>
-  <si>
-    <t>575.02</t>
-  </si>
-  <si>
-    <t>162.84</t>
-  </si>
-  <si>
     <t>TEATRO</t>
   </si>
   <si>
     <t>733.52</t>
   </si>
   <si>
-    <t>670.61</t>
-  </si>
-  <si>
-    <t>62.91</t>
-  </si>
-  <si>
     <t>TERAPIA OCUPACIONAL</t>
   </si>
   <si>
     <t>720.71</t>
   </si>
   <si>
-    <t>533.95</t>
-  </si>
-  <si>
-    <t>186.76</t>
-  </si>
-  <si>
     <t>TURISMO</t>
   </si>
   <si>
-    <t>597.08</t>
-  </si>
-  <si>
-    <t>139.72</t>
-  </si>
-  <si>
     <t>ZOOTECNIA</t>
   </si>
   <si>
-    <t>553.43</t>
-  </si>
-  <si>
-    <t>183.37</t>
-  </si>
-  <si>
     <t>Aprovado</t>
   </si>
   <si>
@@ -1081,6 +466,636 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>665.61</t>
+  </si>
+  <si>
+    <t>82.53</t>
+  </si>
+  <si>
+    <t>662.63</t>
+  </si>
+  <si>
+    <t>85.51</t>
+  </si>
+  <si>
+    <t>642.55</t>
+  </si>
+  <si>
+    <t>105.59</t>
+  </si>
+  <si>
+    <t>574.54</t>
+  </si>
+  <si>
+    <t>169.89</t>
+  </si>
+  <si>
+    <t>590.35</t>
+  </si>
+  <si>
+    <t>113.02</t>
+  </si>
+  <si>
+    <t>715.39</t>
+  </si>
+  <si>
+    <t>30.35</t>
+  </si>
+  <si>
+    <t>661.29</t>
+  </si>
+  <si>
+    <t>76.57</t>
+  </si>
+  <si>
+    <t>693.61</t>
+  </si>
+  <si>
+    <t>50.18</t>
+  </si>
+  <si>
+    <t>590.20</t>
+  </si>
+  <si>
+    <t>160.08</t>
+  </si>
+  <si>
+    <t>757.31</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>605.11</t>
+  </si>
+  <si>
+    <t>160.68</t>
+  </si>
+  <si>
+    <t>676.54</t>
+  </si>
+  <si>
+    <t>72.18</t>
+  </si>
+  <si>
+    <t>662.53</t>
+  </si>
+  <si>
+    <t>86.19</t>
+  </si>
+  <si>
+    <t>695.65</t>
+  </si>
+  <si>
+    <t>53.07</t>
+  </si>
+  <si>
+    <t>628.91</t>
+  </si>
+  <si>
+    <t>119.81</t>
+  </si>
+  <si>
+    <t>669.24</t>
+  </si>
+  <si>
+    <t>81.29</t>
+  </si>
+  <si>
+    <t>655.59</t>
+  </si>
+  <si>
+    <t>94.94</t>
+  </si>
+  <si>
+    <t>570.21</t>
+  </si>
+  <si>
+    <t>132.84</t>
+  </si>
+  <si>
+    <t>656.10</t>
+  </si>
+  <si>
+    <t>82.26</t>
+  </si>
+  <si>
+    <t>629.88</t>
+  </si>
+  <si>
+    <t>73.17</t>
+  </si>
+  <si>
+    <t>687.92</t>
+  </si>
+  <si>
+    <t>49.94</t>
+  </si>
+  <si>
+    <t>572.49</t>
+  </si>
+  <si>
+    <t>150.68</t>
+  </si>
+  <si>
+    <t>694.03</t>
+  </si>
+  <si>
+    <t>53.86</t>
+  </si>
+  <si>
+    <t>770.90</t>
+  </si>
+  <si>
+    <t>-20.62</t>
+  </si>
+  <si>
+    <t>761.42</t>
+  </si>
+  <si>
+    <t>-11.14</t>
+  </si>
+  <si>
+    <t>596.21</t>
+  </si>
+  <si>
+    <t>143.06</t>
+  </si>
+  <si>
+    <t>652.26</t>
+  </si>
+  <si>
+    <t>66.89</t>
+  </si>
+  <si>
+    <t>622.63</t>
+  </si>
+  <si>
+    <t>96.52</t>
+  </si>
+  <si>
+    <t>712.73</t>
+  </si>
+  <si>
+    <t>6.42</t>
+  </si>
+  <si>
+    <t>700.32</t>
+  </si>
+  <si>
+    <t>18.83</t>
+  </si>
+  <si>
+    <t>596.40</t>
+  </si>
+  <si>
+    <t>148.03</t>
+  </si>
+  <si>
+    <t>642.50</t>
+  </si>
+  <si>
+    <t>101.93</t>
+  </si>
+  <si>
+    <t>606.20</t>
+  </si>
+  <si>
+    <t>138.23</t>
+  </si>
+  <si>
+    <t>628.53</t>
+  </si>
+  <si>
+    <t>132.67</t>
+  </si>
+  <si>
+    <t>675.03</t>
+  </si>
+  <si>
+    <t>68.76</t>
+  </si>
+  <si>
+    <t>603.35</t>
+  </si>
+  <si>
+    <t>140.44</t>
+  </si>
+  <si>
+    <t>755.55</t>
+  </si>
+  <si>
+    <t>12.96</t>
+  </si>
+  <si>
+    <t>572.40</t>
+  </si>
+  <si>
+    <t>172.03</t>
+  </si>
+  <si>
+    <t>572.08</t>
+  </si>
+  <si>
+    <t>656.95</t>
+  </si>
+  <si>
+    <t>104.25</t>
+  </si>
+  <si>
+    <t>654.67</t>
+  </si>
+  <si>
+    <t>88.87</t>
+  </si>
+  <si>
+    <t>717.59</t>
+  </si>
+  <si>
+    <t>60.37</t>
+  </si>
+  <si>
+    <t>690.55</t>
+  </si>
+  <si>
+    <t>87.41</t>
+  </si>
+  <si>
+    <t>571.46</t>
+  </si>
+  <si>
+    <t>172.97</t>
+  </si>
+  <si>
+    <t>673.57</t>
+  </si>
+  <si>
+    <t>70.86</t>
+  </si>
+  <si>
+    <t>658.30</t>
+  </si>
+  <si>
+    <t>85.81</t>
+  </si>
+  <si>
+    <t>616.21</t>
+  </si>
+  <si>
+    <t>142.20</t>
+  </si>
+  <si>
+    <t>680.52</t>
+  </si>
+  <si>
+    <t>48.97</t>
+  </si>
+  <si>
+    <t>671.09</t>
+  </si>
+  <si>
+    <t>58.40</t>
+  </si>
+  <si>
+    <t>644.34</t>
+  </si>
+  <si>
+    <t>126.06</t>
+  </si>
+  <si>
+    <t>604.84</t>
+  </si>
+  <si>
+    <t>138.95</t>
+  </si>
+  <si>
+    <t>584.14</t>
+  </si>
+  <si>
+    <t>169.75</t>
+  </si>
+  <si>
+    <t>578.39</t>
+  </si>
+  <si>
+    <t>175.50</t>
+  </si>
+  <si>
+    <t>662.05</t>
+  </si>
+  <si>
+    <t>81.74</t>
+  </si>
+  <si>
+    <t>699.71</t>
+  </si>
+  <si>
+    <t>29.46</t>
+  </si>
+  <si>
+    <t>683.14</t>
+  </si>
+  <si>
+    <t>46.03</t>
+  </si>
+  <si>
+    <t>670.35</t>
+  </si>
+  <si>
+    <t>48.80</t>
+  </si>
+  <si>
+    <t>655.53</t>
+  </si>
+  <si>
+    <t>63.62</t>
+  </si>
+  <si>
+    <t>651.45</t>
+  </si>
+  <si>
+    <t>96.44</t>
+  </si>
+  <si>
+    <t>621.95</t>
+  </si>
+  <si>
+    <t>98.51</t>
+  </si>
+  <si>
+    <t>630.50</t>
+  </si>
+  <si>
+    <t>89.96</t>
+  </si>
+  <si>
+    <t>602.25</t>
+  </si>
+  <si>
+    <t>118.21</t>
+  </si>
+  <si>
+    <t>591.78</t>
+  </si>
+  <si>
+    <t>152.33</t>
+  </si>
+  <si>
+    <t>663.59</t>
+  </si>
+  <si>
+    <t>67.21</t>
+  </si>
+  <si>
+    <t>657.24</t>
+  </si>
+  <si>
+    <t>73.56</t>
+  </si>
+  <si>
+    <t>609.43</t>
+  </si>
+  <si>
+    <t>130.83</t>
+  </si>
+  <si>
+    <t>663.53</t>
+  </si>
+  <si>
+    <t>76.73</t>
+  </si>
+  <si>
+    <t>655.85</t>
+  </si>
+  <si>
+    <t>84.41</t>
+  </si>
+  <si>
+    <t>657.93</t>
+  </si>
+  <si>
+    <t>82.33</t>
+  </si>
+  <si>
+    <t>645.84</t>
+  </si>
+  <si>
+    <t>94.42</t>
+  </si>
+  <si>
+    <t>638.83</t>
+  </si>
+  <si>
+    <t>101.43</t>
+  </si>
+  <si>
+    <t>608.15</t>
+  </si>
+  <si>
+    <t>132.11</t>
+  </si>
+  <si>
+    <t>663.15</t>
+  </si>
+  <si>
+    <t>77.11</t>
+  </si>
+  <si>
+    <t>646.29</t>
+  </si>
+  <si>
+    <t>114.59</t>
+  </si>
+  <si>
+    <t>663.24</t>
+  </si>
+  <si>
+    <t>97.64</t>
+  </si>
+  <si>
+    <t>653.33</t>
+  </si>
+  <si>
+    <t>98.09</t>
+  </si>
+  <si>
+    <t>609.29</t>
+  </si>
+  <si>
+    <t>151.59</t>
+  </si>
+  <si>
+    <t>623.55</t>
+  </si>
+  <si>
+    <t>127.87</t>
+  </si>
+  <si>
+    <t>796.53</t>
+  </si>
+  <si>
+    <t>-74.67</t>
+  </si>
+  <si>
+    <t>791.35</t>
+  </si>
+  <si>
+    <t>-69.49</t>
+  </si>
+  <si>
+    <t>702.80</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>670.37</t>
+  </si>
+  <si>
+    <t>49.10</t>
+  </si>
+  <si>
+    <t>537.90</t>
+  </si>
+  <si>
+    <t>182.56</t>
+  </si>
+  <si>
+    <t>689.19</t>
+  </si>
+  <si>
+    <t>39.98</t>
+  </si>
+  <si>
+    <t>675.01</t>
+  </si>
+  <si>
+    <t>54.16</t>
+  </si>
+  <si>
+    <t>750.60</t>
+  </si>
+  <si>
+    <t>-21.43</t>
+  </si>
+  <si>
+    <t>733.72</t>
+  </si>
+  <si>
+    <t>-4.55</t>
+  </si>
+  <si>
+    <t>657.66</t>
+  </si>
+  <si>
+    <t>82.60</t>
+  </si>
+  <si>
+    <t>651.19</t>
+  </si>
+  <si>
+    <t>89.07</t>
+  </si>
+  <si>
+    <t>641.61</t>
+  </si>
+  <si>
+    <t>98.65</t>
+  </si>
+  <si>
+    <t>754.02</t>
+  </si>
+  <si>
+    <t>-13.44</t>
+  </si>
+  <si>
+    <t>702.54</t>
+  </si>
+  <si>
+    <t>45.35</t>
+  </si>
+  <si>
+    <t>602.91</t>
+  </si>
+  <si>
+    <t>141.20</t>
+  </si>
+  <si>
+    <t>585.36</t>
+  </si>
+  <si>
+    <t>160.90</t>
+  </si>
+  <si>
+    <t>558.00</t>
+  </si>
+  <si>
+    <t>188.26</t>
+  </si>
+  <si>
+    <t>614.39</t>
+  </si>
+  <si>
+    <t>149.27</t>
+  </si>
+  <si>
+    <t>710.08</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>619.72</t>
+  </si>
+  <si>
+    <t>130.56</t>
+  </si>
+  <si>
+    <t>651.54</t>
+  </si>
+  <si>
+    <t>88.72</t>
+  </si>
+  <si>
+    <t>710.05</t>
+  </si>
+  <si>
+    <t>48.11</t>
+  </si>
+  <si>
+    <t>735.22</t>
+  </si>
+  <si>
+    <t>22.94</t>
+  </si>
+  <si>
+    <t>138.55</t>
+  </si>
+  <si>
+    <t>672.57</t>
+  </si>
+  <si>
+    <t>60.95</t>
+  </si>
+  <si>
+    <t>576.72</t>
+  </si>
+  <si>
+    <t>143.99</t>
+  </si>
+  <si>
+    <t>613.20</t>
+  </si>
+  <si>
+    <t>123.60</t>
+  </si>
+  <si>
+    <t>584.02</t>
+  </si>
+  <si>
+    <t>152.78</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC903A1-21E9-4279-BAB2-79B037A929A3}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1486,3458 +1501,3458 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I35" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
       <c r="H37" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
         <v>12</v>
       </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J51" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
       <c r="H53" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
         <v>12</v>
       </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
-      </c>
       <c r="H56" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="I57" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J57" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J59" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="I61" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
         <v>12</v>
       </c>
-      <c r="F64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
       <c r="H64" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H66" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="I66" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="I67" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="I68" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="I69" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="I70" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H71" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="I71" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="I72" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="I73" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
         <v>12</v>
       </c>
-      <c r="F74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" t="s">
-        <v>14</v>
-      </c>
       <c r="H74" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="I74" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="I75" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H76" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
         <v>12</v>
       </c>
-      <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s">
-        <v>14</v>
-      </c>
       <c r="H77" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="I77" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="D78" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="I78" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
         <v>12</v>
       </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>14</v>
-      </c>
       <c r="H79" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="I79" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
         <v>12</v>
       </c>
-      <c r="F80" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" t="s">
-        <v>14</v>
-      </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="I80" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
         <v>12</v>
       </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
       <c r="H81" t="s">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="I81" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="I82" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J82" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J83" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s">
-        <v>282</v>
+        <v>120</v>
       </c>
       <c r="I86" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="I87" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D88" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="I88" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J88" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="I89" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J89" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="I90" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J90" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
         <v>12</v>
       </c>
-      <c r="F91" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
       <c r="H91" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="I91" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D92" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="I92" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H93" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="I93" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="D94" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
         <v>12</v>
       </c>
-      <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
       <c r="H94" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="I94" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
         <v>12</v>
       </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>14</v>
-      </c>
       <c r="H95" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="I95" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
         <v>12</v>
       </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>14</v>
-      </c>
       <c r="H96" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="I97" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="C98" t="s">
+        <v>334</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H98" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="I98" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H99" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="I99" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D100" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
         <v>12</v>
       </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
       <c r="H100" t="s">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D101" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="I101" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D102" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>326</v>
+        <v>135</v>
       </c>
       <c r="I102" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D103" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H103" t="s">
-        <v>330</v>
+        <v>137</v>
       </c>
       <c r="I103" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>330</v>
+        <v>137</v>
       </c>
       <c r="I104" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H105" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="I105" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" t="s">
         <v>349</v>
       </c>
-      <c r="B106" t="s">
-        <v>336</v>
-      </c>
-      <c r="C106" t="s">
-        <v>337</v>
-      </c>
       <c r="D106" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H106" t="s">
-        <v>339</v>
+        <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J106" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
-        <v>340</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D107" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
         <v>12</v>
       </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>14</v>
-      </c>
       <c r="H107" t="s">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D108" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H108" t="s">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="I108" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C109" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="I109" t="s">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="J109" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
